--- a/HTML/English Excel.xlsx
+++ b/HTML/English Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBD50A2-07EB-462D-A51C-CC3567E47158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331146B-782C-4B37-B24A-AD764C9ECDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>English test store</t>
   </si>
@@ -76,9 +76,6 @@
     <t>espressoenglish ?</t>
   </si>
   <si>
-    <t>duolingo ?</t>
-  </si>
-  <si>
     <t>learning english</t>
   </si>
   <si>
@@ -94,50 +91,62 @@
     <t>Amigos Ingleses</t>
   </si>
   <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>One Minute E</t>
+  </si>
+  <si>
+    <t>Culips E</t>
+  </si>
+  <si>
+    <t>E With Lucy</t>
+  </si>
+  <si>
+    <t>Single Step E</t>
+  </si>
+  <si>
+    <t>E for you tv</t>
+  </si>
+  <si>
+    <t>E Anyone</t>
+  </si>
+  <si>
+    <t>mmm E</t>
+  </si>
+  <si>
+    <t>Rachels E</t>
+  </si>
+  <si>
+    <t>Master E</t>
+  </si>
+  <si>
+    <t>Go Natural E</t>
+  </si>
+  <si>
+    <t>E Class 101</t>
+  </si>
+  <si>
+    <t>English Listening Exercises</t>
+  </si>
+  <si>
     <t>Youtube Channels</t>
   </si>
   <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>One Minute E</t>
-  </si>
-  <si>
-    <t>Culips E</t>
-  </si>
-  <si>
-    <t>E With Lucy</t>
-  </si>
-  <si>
-    <t>Single Step E</t>
-  </si>
-  <si>
-    <t>E for you tv</t>
-  </si>
-  <si>
-    <t>E Anyone</t>
-  </si>
-  <si>
-    <t>mmm E</t>
-  </si>
-  <si>
-    <t>Rachels E</t>
-  </si>
-  <si>
-    <t>Master E</t>
-  </si>
-  <si>
-    <t>Go Natural E</t>
-  </si>
-  <si>
-    <t>E Class 101</t>
+    <t>Duolingo</t>
+  </si>
+  <si>
+    <t>7ESL Learning English</t>
+  </si>
+  <si>
+    <t>test-english</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +194,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +251,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,15 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.7109375" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="34.7109375" style="1"/>
+    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="34.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -536,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -578,14 +612,16 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -593,12 +629,80 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -615,19 +719,37 @@
     <hyperlink ref="D3" r:id="rId11" display="https://www.bbc.co.uk/learningenglish" xr:uid="{710C9BCC-7127-4219-BBEB-7F403970596B}"/>
     <hyperlink ref="E3" r:id="rId12" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{0461733B-2F01-4914-9C6F-E889DE0A60D5}"/>
     <hyperlink ref="A4" r:id="rId13" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{169824E0-7646-49E1-89D0-6894F553187A}"/>
-    <hyperlink ref="B4" r:id="rId14" display="https://www.duolingo.com/learn" xr:uid="{EF3106E4-AE1F-4040-89C9-89227D7D3A10}"/>
+    <hyperlink ref="F3" r:id="rId14" display="https://www.duolingo.com/learn" xr:uid="{EF3106E4-AE1F-4040-89C9-89227D7D3A10}"/>
     <hyperlink ref="E1" r:id="rId15" display="https://learningenglish.voanews.com/" xr:uid="{0D6E559E-81A0-4C04-9357-1AE3416E84B1}"/>
-    <hyperlink ref="F1" location="Youtube!A1" display="Youtube Channels" xr:uid="{94F7FEA6-AB94-4C42-98BC-E1AB882D541D}"/>
     <hyperlink ref="F2" r:id="rId16" xr:uid="{97906BB2-FD7A-446A-AAC3-405E6C13968D}"/>
+    <hyperlink ref="F1" r:id="rId17" xr:uid="{D3A66C98-76A4-4583-AFCA-77D2C81471F7}"/>
+    <hyperlink ref="B5" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{4F7C9E8C-B23A-419C-A692-8C919149A0F4}"/>
+    <hyperlink ref="C5" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{C29D52CE-BC1B-42ED-9BFE-CC0F16F0AE29}"/>
+    <hyperlink ref="A6" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{E2F67EFC-D312-403A-A49D-48D222793137}"/>
+    <hyperlink ref="B6" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{DE8E1FA8-BDF5-4569-AD63-C2941DF4612D}"/>
+    <hyperlink ref="D5" r:id="rId22" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{06D2CB84-C4F6-46EB-B54D-73BB84390B06}"/>
+    <hyperlink ref="F5" r:id="rId23" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DF9D4A22-D0DA-477A-BA28-3385C349DC79}"/>
+    <hyperlink ref="D7" r:id="rId24" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{8D4B2EAE-B423-4471-8F57-C6F16F38018F}"/>
+    <hyperlink ref="E6" r:id="rId25" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{A6C5F8A0-FBD1-4B90-AA6A-5AFCE2B1B0FC}"/>
+    <hyperlink ref="A7" r:id="rId26" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{52598A4E-E5DC-4857-A8B8-F71454A9D494}"/>
+    <hyperlink ref="C6" r:id="rId27" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{A13EEA56-2A37-4E6C-B1DA-6E7FA4C736E8}"/>
+    <hyperlink ref="D6" r:id="rId28" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{59670B07-AD72-4800-B051-B554DCB91438}"/>
+    <hyperlink ref="B7" r:id="rId29" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{8EC00606-E085-4BAD-8193-CE135E8DAC90}"/>
+    <hyperlink ref="C7" r:id="rId30" display="Single Step English" xr:uid="{67CC61FA-F494-423C-AD9E-D71189979018}"/>
+    <hyperlink ref="F6" r:id="rId31" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{416FF5F4-661B-4EFE-91E4-9FD623572EC8}"/>
+    <hyperlink ref="E7" r:id="rId32" display="Culips " xr:uid="{C37B50BB-6ACB-44EF-A87D-3EFD6F37DB2B}"/>
+    <hyperlink ref="E5" r:id="rId33" xr:uid="{83EA88CF-12FA-4099-93F8-4C3328C03925}"/>
+    <hyperlink ref="F7" r:id="rId34" xr:uid="{3DCF80CE-986F-4E87-9FC8-241AE3823EF5}"/>
+    <hyperlink ref="B4" r:id="rId35" xr:uid="{78CDA7CB-E735-4FC0-BB8A-796D513A0F80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E1EE0-9643-4D13-A19E-F97C867483CB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="E1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -638,86 +760,25 @@
     <col min="1" max="5" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="1" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="3" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
+    <row r="4" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{4F7C9E8C-B23A-419C-A692-8C919149A0F4}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{C29D52CE-BC1B-42ED-9BFE-CC0F16F0AE29}"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{E2F67EFC-D312-403A-A49D-48D222793137}"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{DE8E1FA8-BDF5-4569-AD63-C2941DF4612D}"/>
-    <hyperlink ref="C1" r:id="rId5" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{06D2CB84-C4F6-46EB-B54D-73BB84390B06}"/>
-    <hyperlink ref="D1" r:id="rId6" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DF9D4A22-D0DA-477A-BA28-3385C349DC79}"/>
-    <hyperlink ref="B4" r:id="rId7" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{8D4B2EAE-B423-4471-8F57-C6F16F38018F}"/>
-    <hyperlink ref="A3" r:id="rId8" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{A6C5F8A0-FBD1-4B90-AA6A-5AFCE2B1B0FC}"/>
-    <hyperlink ref="B3" r:id="rId9" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{52598A4E-E5DC-4857-A8B8-F71454A9D494}"/>
-    <hyperlink ref="C2" r:id="rId10" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{A13EEA56-2A37-4E6C-B1DA-6E7FA4C736E8}"/>
-    <hyperlink ref="D2" r:id="rId11" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{59670B07-AD72-4800-B051-B554DCB91438}"/>
-    <hyperlink ref="C3" r:id="rId12" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{8EC00606-E085-4BAD-8193-CE135E8DAC90}"/>
     <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{9415D89E-55D2-439B-8340-18AE948409FE}"/>
-    <hyperlink ref="A4" r:id="rId13" display="Single Step English" xr:uid="{67CC61FA-F494-423C-AD9E-D71189979018}"/>
-    <hyperlink ref="D3" r:id="rId14" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{416FF5F4-661B-4EFE-91E4-9FD623572EC8}"/>
-    <hyperlink ref="C4" r:id="rId15" display="Culips " xr:uid="{C37B50BB-6ACB-44EF-A87D-3EFD6F37DB2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HTML/English Excel.xlsx
+++ b/HTML/English Excel.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331146B-782C-4B37-B24A-AD764C9ECDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7F088C-EBBE-4A9E-AC62-8491CF915CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Youtube" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>English test store</t>
   </si>
@@ -73,9 +72,6 @@
     <t>espresso english</t>
   </si>
   <si>
-    <t>espressoenglish ?</t>
-  </si>
-  <si>
     <t>learning english</t>
   </si>
   <si>
@@ -130,9 +126,6 @@
     <t>English Listening Exercises</t>
   </si>
   <si>
-    <t>Youtube Channels</t>
-  </si>
-  <si>
     <t>Duolingo</t>
   </si>
   <si>
@@ -140,13 +133,19 @@
   </si>
   <si>
     <t>test-english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdMo Tests,Quizzes </t>
+  </si>
+  <si>
+    <t>Espresso English ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +172,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,7 +187,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -188,7 +195,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,14 +203,14 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,13 +219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,26 +239,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,54 +543,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.7109375" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="34.7109375" style="1"/>
+    <col min="1" max="16384" width="36.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -597,112 +593,110 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -722,63 +716,28 @@
     <hyperlink ref="F3" r:id="rId14" display="https://www.duolingo.com/learn" xr:uid="{EF3106E4-AE1F-4040-89C9-89227D7D3A10}"/>
     <hyperlink ref="E1" r:id="rId15" display="https://learningenglish.voanews.com/" xr:uid="{0D6E559E-81A0-4C04-9357-1AE3416E84B1}"/>
     <hyperlink ref="F2" r:id="rId16" xr:uid="{97906BB2-FD7A-446A-AAC3-405E6C13968D}"/>
-    <hyperlink ref="F1" r:id="rId17" xr:uid="{D3A66C98-76A4-4583-AFCA-77D2C81471F7}"/>
-    <hyperlink ref="B5" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{4F7C9E8C-B23A-419C-A692-8C919149A0F4}"/>
-    <hyperlink ref="C5" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{C29D52CE-BC1B-42ED-9BFE-CC0F16F0AE29}"/>
-    <hyperlink ref="A6" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{E2F67EFC-D312-403A-A49D-48D222793137}"/>
-    <hyperlink ref="B6" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{DE8E1FA8-BDF5-4569-AD63-C2941DF4612D}"/>
-    <hyperlink ref="D5" r:id="rId22" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{06D2CB84-C4F6-46EB-B54D-73BB84390B06}"/>
-    <hyperlink ref="F5" r:id="rId23" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DF9D4A22-D0DA-477A-BA28-3385C349DC79}"/>
-    <hyperlink ref="D7" r:id="rId24" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{8D4B2EAE-B423-4471-8F57-C6F16F38018F}"/>
-    <hyperlink ref="E6" r:id="rId25" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{A6C5F8A0-FBD1-4B90-AA6A-5AFCE2B1B0FC}"/>
-    <hyperlink ref="A7" r:id="rId26" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{52598A4E-E5DC-4857-A8B8-F71454A9D494}"/>
-    <hyperlink ref="C6" r:id="rId27" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{A13EEA56-2A37-4E6C-B1DA-6E7FA4C736E8}"/>
-    <hyperlink ref="D6" r:id="rId28" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{59670B07-AD72-4800-B051-B554DCB91438}"/>
-    <hyperlink ref="B7" r:id="rId29" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{8EC00606-E085-4BAD-8193-CE135E8DAC90}"/>
-    <hyperlink ref="C7" r:id="rId30" display="Single Step English" xr:uid="{67CC61FA-F494-423C-AD9E-D71189979018}"/>
-    <hyperlink ref="F6" r:id="rId31" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{416FF5F4-661B-4EFE-91E4-9FD623572EC8}"/>
-    <hyperlink ref="E7" r:id="rId32" display="Culips " xr:uid="{C37B50BB-6ACB-44EF-A87D-3EFD6F37DB2B}"/>
-    <hyperlink ref="E5" r:id="rId33" xr:uid="{83EA88CF-12FA-4099-93F8-4C3328C03925}"/>
-    <hyperlink ref="F7" r:id="rId34" xr:uid="{3DCF80CE-986F-4E87-9FC8-241AE3823EF5}"/>
-    <hyperlink ref="B4" r:id="rId35" xr:uid="{78CDA7CB-E735-4FC0-BB8A-796D513A0F80}"/>
+    <hyperlink ref="A5" r:id="rId17" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{4F7C9E8C-B23A-419C-A692-8C919149A0F4}"/>
+    <hyperlink ref="B5" r:id="rId18" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{C29D52CE-BC1B-42ED-9BFE-CC0F16F0AE29}"/>
+    <hyperlink ref="A6" r:id="rId19" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{E2F67EFC-D312-403A-A49D-48D222793137}"/>
+    <hyperlink ref="B6" r:id="rId20" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{DE8E1FA8-BDF5-4569-AD63-C2941DF4612D}"/>
+    <hyperlink ref="C5" r:id="rId21" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{06D2CB84-C4F6-46EB-B54D-73BB84390B06}"/>
+    <hyperlink ref="E5" r:id="rId22" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DF9D4A22-D0DA-477A-BA28-3385C349DC79}"/>
+    <hyperlink ref="D7" r:id="rId23" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{8D4B2EAE-B423-4471-8F57-C6F16F38018F}"/>
+    <hyperlink ref="E6" r:id="rId24" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{A6C5F8A0-FBD1-4B90-AA6A-5AFCE2B1B0FC}"/>
+    <hyperlink ref="A7" r:id="rId25" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{52598A4E-E5DC-4857-A8B8-F71454A9D494}"/>
+    <hyperlink ref="C6" r:id="rId26" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{A13EEA56-2A37-4E6C-B1DA-6E7FA4C736E8}"/>
+    <hyperlink ref="D6" r:id="rId27" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{59670B07-AD72-4800-B051-B554DCB91438}"/>
+    <hyperlink ref="B7" r:id="rId28" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{8EC00606-E085-4BAD-8193-CE135E8DAC90}"/>
+    <hyperlink ref="C7" r:id="rId29" display="Single Step English" xr:uid="{67CC61FA-F494-423C-AD9E-D71189979018}"/>
+    <hyperlink ref="B8" r:id="rId30" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{416FF5F4-661B-4EFE-91E4-9FD623572EC8}"/>
+    <hyperlink ref="E7" r:id="rId31" display="Culips " xr:uid="{C37B50BB-6ACB-44EF-A87D-3EFD6F37DB2B}"/>
+    <hyperlink ref="D5" r:id="rId32" xr:uid="{83EA88CF-12FA-4099-93F8-4C3328C03925}"/>
+    <hyperlink ref="C8" r:id="rId33" xr:uid="{3DCF80CE-986F-4E87-9FC8-241AE3823EF5}"/>
+    <hyperlink ref="B4" r:id="rId34" xr:uid="{78CDA7CB-E735-4FC0-BB8A-796D513A0F80}"/>
+    <hyperlink ref="A8" r:id="rId35" display="EdMo Tests and Quizzes " xr:uid="{94E70924-39F1-471A-BBA8-91C74A120DD8}"/>
+    <hyperlink ref="F1" r:id="rId36" xr:uid="{D3A66C98-76A4-4583-AFCA-77D2C81471F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E1EE0-9643-4D13-A19E-F97C867483CB}">
-  <dimension ref="E1:E4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="43.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="5:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Dashboard!A1" display="Back" xr:uid="{9415D89E-55D2-439B-8340-18AE948409FE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>